--- a/example_data/EMA/label_corrected/besponsa-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/besponsa-epar-product-information_en.xlsx
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>populations - pediatric || pregnancy</t>
+          <t>pregnancy || populations - pediatric</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
